--- a/Sorting_Data_Analysis.xlsx
+++ b/Sorting_Data_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliasmann/Desktop/Algorithms/21s-pa02-EliasLMann/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3343C94-2B75-6040-A778-AAA7F8EA9D5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782CA56-D315-884D-9BA2-4766235BCA7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="940" windowWidth="28040" windowHeight="16480" xr2:uid="{D65CA1D0-4F61-4048-8DF1-AD63BEC15ED0}"/>
+    <workbookView xWindow="-38400" yWindow="-1260" windowWidth="38400" windowHeight="21600" xr2:uid="{D65CA1D0-4F61-4048-8DF1-AD63BEC15ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>Selection</t>
   </si>
@@ -90,7 +90,40 @@
     <t>30% Randomized Elements</t>
   </si>
   <si>
+    <t>Randomly Sorted Integers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Sorted Integers: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomly Sorted Where Only 20% Of Integers are Unique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70% Sorted and 30% Randomized Integers: </t>
+  </si>
+  <si>
     <t>9.39e-07 seconds</t>
+  </si>
+  <si>
+    <t>HANDOFF FROM QUICK SORT TO INSERTION SORT FOR LAST 50 ELEMENTS:</t>
+  </si>
+  <si>
+    <t>SELECTION</t>
+  </si>
+  <si>
+    <t>INSERTION</t>
+  </si>
+  <si>
+    <t>HEAP</t>
+  </si>
+  <si>
+    <t>QUICK</t>
+  </si>
+  <si>
+    <t>RADIX</t>
+  </si>
+  <si>
+    <t>MERGE</t>
   </si>
 </sst>
 </file>
@@ -126,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABF110E-9477-8C44-AC82-75A4FF836A7B}">
-  <dimension ref="B1:G35"/>
+  <dimension ref="B1:AA89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -464,7 +498,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>10</v>
       </c>
@@ -481,7 +515,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -497,8 +531,20 @@
       <c r="F3">
         <v>8.5849499999999992</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Z3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -514,8 +560,27 @@
       <c r="F4">
         <v>5.1501799999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+      <c r="R4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -534,8 +599,34 @@
       <c r="G5">
         <v>0.30244599999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5" s="2">
+        <v>8.2699999999999998E-7</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2.9499999999999998E-7</v>
+      </c>
+      <c r="T5" s="2">
+        <v>8.3900000000000004E-7</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.4464000000000001E-5</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2.2929999999999999E-5</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1.0869999999999999E-6</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -554,8 +645,36 @@
       <c r="G6">
         <v>0.15831100000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K6" s="3"/>
+      <c r="Q6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R6">
+        <v>2.7460700000000001E-4</v>
+      </c>
+      <c r="S6">
+        <v>1.6215500000000001E-4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>9.6465000000000006E-5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>4.9395999999999999E-5</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2.8191000000000002E-5</v>
+      </c>
+      <c r="W6" s="2">
+        <v>7.559E-5</v>
+      </c>
+      <c r="Z6">
+        <v>1000</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>3.0531999999999998E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -574,8 +693,36 @@
       <c r="G7">
         <v>0.119242</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K7" s="3"/>
+      <c r="Q7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R7">
+        <v>2.3675000000000002E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.2982499999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.1485E-3</v>
+      </c>
+      <c r="U7">
+        <v>6.5353199999999996E-4</v>
+      </c>
+      <c r="V7">
+        <v>3.4645100000000001E-4</v>
+      </c>
+      <c r="W7">
+        <v>7.9452600000000004E-4</v>
+      </c>
+      <c r="Z7">
+        <v>10000</v>
+      </c>
+      <c r="AA7">
+        <v>3.2736000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -594,8 +741,59 @@
       <c r="G8">
         <v>0.199575</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K8" s="3"/>
+      <c r="Q8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="R8">
+        <v>2.3972899999999999</v>
+      </c>
+      <c r="S8">
+        <v>1.01231</v>
+      </c>
+      <c r="T8">
+        <v>1.6429599999999999E-2</v>
+      </c>
+      <c r="U8">
+        <v>7.9953799999999998E-3</v>
+      </c>
+      <c r="V8">
+        <v>4.5381099999999997E-3</v>
+      </c>
+      <c r="W8">
+        <v>9.8671999999999996E-3</v>
+      </c>
+      <c r="Z8">
+        <v>100000</v>
+      </c>
+      <c r="AA8">
+        <v>4.2485800000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="T9">
+        <v>0.18206800000000001</v>
+      </c>
+      <c r="U9">
+        <v>9.52794E-2</v>
+      </c>
+      <c r="V9">
+        <v>5.2265300000000001E-2</v>
+      </c>
+      <c r="W9">
+        <v>0.113662</v>
+      </c>
+      <c r="Z9">
+        <v>1000000</v>
+      </c>
+      <c r="AA9">
+        <v>4.3006700000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -605,7 +803,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>10</v>
       </c>
@@ -621,8 +819,21 @@
       <c r="G11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L11" s="2"/>
+      <c r="Q11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="Z11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -638,8 +849,34 @@
       <c r="F12">
         <v>8.4399099999999994</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="R12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z12">
+        <v>1000</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>2.5831999999999999E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -655,8 +892,36 @@
       <c r="F13">
         <v>10.2948</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13" s="2">
+        <v>6.3300000000000002E-7</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2.5499999999999999E-7</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2.91E-7</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3.2500000000000001E-7</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2.6899999999999999E-7</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3.1899999999999998E-7</v>
+      </c>
+      <c r="Z13">
+        <v>10000</v>
+      </c>
+      <c r="AA13">
+        <v>3.31071E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -675,8 +940,36 @@
       <c r="G14">
         <v>0.19502800000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K14" s="3"/>
+      <c r="Q14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R14">
+        <v>2.6928999999999999E-4</v>
+      </c>
+      <c r="S14">
+        <v>1.9184200000000001E-4</v>
+      </c>
+      <c r="T14" s="2">
+        <v>5.6548999999999997E-5</v>
+      </c>
+      <c r="U14" s="2">
+        <v>3.1764999999999998E-5</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2.1005E-5</v>
+      </c>
+      <c r="W14" s="2">
+        <v>2.6154000000000001E-5</v>
+      </c>
+      <c r="Z14">
+        <v>100000</v>
+      </c>
+      <c r="AA14">
+        <v>3.8692100000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -695,8 +988,36 @@
       <c r="G15">
         <v>9.9886699999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+      <c r="Q15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R15">
+        <v>2.31687E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.9133299999999999E-2</v>
+      </c>
+      <c r="T15">
+        <v>6.7009199999999995E-4</v>
+      </c>
+      <c r="U15">
+        <v>3.7750899999999999E-4</v>
+      </c>
+      <c r="V15">
+        <v>2.8917999999999999E-4</v>
+      </c>
+      <c r="W15">
+        <v>3.1848400000000001E-4</v>
+      </c>
+      <c r="Z15">
+        <v>1000000</v>
+      </c>
+      <c r="AA15">
+        <v>4.5018299999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -715,8 +1036,29 @@
       <c r="G16">
         <v>9.7185400000000005E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="R16">
+        <v>2.3201399999999999</v>
+      </c>
+      <c r="S16">
+        <v>2.7709899999999998</v>
+      </c>
+      <c r="T16">
+        <v>8.0943999999999999E-3</v>
+      </c>
+      <c r="U16">
+        <v>4.4002800000000003E-3</v>
+      </c>
+      <c r="V16">
+        <v>3.55391E-3</v>
+      </c>
+      <c r="W16">
+        <v>2.7254499999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -735,8 +1077,34 @@
       <c r="G17">
         <v>0.114417</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="T17">
+        <v>0.133216</v>
+      </c>
+      <c r="U17">
+        <v>4.9807700000000003E-2</v>
+      </c>
+      <c r="V17">
+        <v>5.0851199999999999E-2</v>
+      </c>
+      <c r="W17">
+        <v>3.3885699999999998E-2</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>1000</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>2.7991E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,8 +1113,24 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K19" s="3"/>
+      <c r="Q19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="Z19">
+        <v>10000</v>
+      </c>
+      <c r="AA19">
+        <v>2.94989E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>10</v>
       </c>
@@ -762,8 +1146,33 @@
       <c r="G20">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K20" s="3"/>
+      <c r="R20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z20">
+        <v>100000</v>
+      </c>
+      <c r="AA20">
+        <v>3.3701099999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -779,8 +1188,36 @@
       <c r="F21">
         <v>8.3268000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K21" s="3"/>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2.8200000000000001E-7</v>
+      </c>
+      <c r="S21" s="2">
+        <v>2.0100000000000001E-7</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3.2300000000000002E-7</v>
+      </c>
+      <c r="U21" s="2">
+        <v>3.2899999999999999E-7</v>
+      </c>
+      <c r="V21" s="2">
+        <v>2.2100000000000001E-7</v>
+      </c>
+      <c r="W21" s="2">
+        <v>7.6599999999999995E-7</v>
+      </c>
+      <c r="Z21">
+        <v>1000000</v>
+      </c>
+      <c r="AA21">
+        <v>4.0899600000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -796,8 +1233,30 @@
       <c r="F22">
         <v>5.13002</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K22" s="3"/>
+      <c r="Q22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R22">
+        <v>3.1790600000000002E-4</v>
+      </c>
+      <c r="S22">
+        <v>1.5959700000000001E-4</v>
+      </c>
+      <c r="T22" s="2">
+        <v>9.8388999999999996E-5</v>
+      </c>
+      <c r="U22" s="2">
+        <v>4.9662E-5</v>
+      </c>
+      <c r="V22" s="2">
+        <v>2.2099E-5</v>
+      </c>
+      <c r="W22" s="2">
+        <v>6.3663000000000004E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -816,8 +1275,32 @@
       <c r="G23">
         <v>0.290352</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R23">
+        <v>2.2042800000000001E-2</v>
+      </c>
+      <c r="S23">
+        <v>1.08261E-2</v>
+      </c>
+      <c r="T23">
+        <v>9.0861299999999996E-4</v>
+      </c>
+      <c r="U23">
+        <v>6.2311300000000001E-4</v>
+      </c>
+      <c r="V23">
+        <v>3.55189E-4</v>
+      </c>
+      <c r="W23">
+        <v>7.4258600000000005E-4</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -836,8 +1319,35 @@
       <c r="G24">
         <v>0.161133</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="R24">
+        <v>2.3571499999999999</v>
+      </c>
+      <c r="S24">
+        <v>1.03528</v>
+      </c>
+      <c r="T24">
+        <v>1.2879E-2</v>
+      </c>
+      <c r="U24">
+        <v>8.5537300000000007E-3</v>
+      </c>
+      <c r="V24">
+        <v>3.4344599999999999E-3</v>
+      </c>
+      <c r="W24">
+        <v>8.9976499999999994E-3</v>
+      </c>
+      <c r="Z24">
+        <v>1000</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>2.8124E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -856,8 +1366,30 @@
       <c r="G25">
         <v>9.5400899999999997E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="Q25" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="T25">
+        <v>0.253525</v>
+      </c>
+      <c r="U25">
+        <v>9.4509200000000002E-2</v>
+      </c>
+      <c r="V25">
+        <v>4.6964899999999997E-2</v>
+      </c>
+      <c r="W25">
+        <v>0.112821</v>
+      </c>
+      <c r="Z25">
+        <v>10000</v>
+      </c>
+      <c r="AA25">
+        <v>3.4750200000000002E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -876,8 +1408,34 @@
       <c r="G26">
         <v>0.20008400000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="Z26">
+        <v>100000</v>
+      </c>
+      <c r="AA26">
+        <v>4.0153699999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="K27" s="3"/>
+      <c r="Q27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="Z27">
+        <v>1000000</v>
+      </c>
+      <c r="AA27">
+        <v>4.5339900000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +1444,27 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K28" s="3"/>
+      <c r="R28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" t="s">
+        <v>18</v>
+      </c>
+      <c r="U28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>10</v>
       </c>
@@ -903,8 +1480,30 @@
       <c r="G29">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="K29" s="3"/>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1.6500000000000001E-7</v>
+      </c>
+      <c r="S29" s="2">
+        <v>2.17E-7</v>
+      </c>
+      <c r="T29" s="2">
+        <v>3.77E-7</v>
+      </c>
+      <c r="U29" s="2">
+        <v>2.5800000000000001E-7</v>
+      </c>
+      <c r="V29" s="2">
+        <v>4.03E-7</v>
+      </c>
+      <c r="W29" s="2">
+        <v>7.3300000000000001E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -920,8 +1519,29 @@
       <c r="F30">
         <v>8.3109500000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R30">
+        <v>2.6947599999999999E-4</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1.5943999999999998E-5</v>
+      </c>
+      <c r="T30" s="2">
+        <v>6.6505000000000001E-5</v>
+      </c>
+      <c r="U30" s="2">
+        <v>3.6062999999999997E-5</v>
+      </c>
+      <c r="V30" s="2">
+        <v>2.8532999999999999E-5</v>
+      </c>
+      <c r="W30" s="2">
+        <v>3.7518999999999998E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -937,8 +1557,29 @@
       <c r="F31">
         <v>0.607433</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R31">
+        <v>2.1850000000000001E-2</v>
+      </c>
+      <c r="S31">
+        <v>1.14762E-3</v>
+      </c>
+      <c r="T31">
+        <v>9.5981899999999999E-4</v>
+      </c>
+      <c r="U31">
+        <v>4.1388800000000001E-4</v>
+      </c>
+      <c r="V31">
+        <v>4.2175099999999999E-4</v>
+      </c>
+      <c r="W31">
+        <v>5.4334800000000003E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -957,8 +1598,29 @@
       <c r="G32">
         <v>0.23982999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="R32">
+        <v>2.3207</v>
+      </c>
+      <c r="S32">
+        <v>0.133496</v>
+      </c>
+      <c r="T32">
+        <v>1.39001E-2</v>
+      </c>
+      <c r="U32">
+        <v>5.0797000000000004E-3</v>
+      </c>
+      <c r="V32">
+        <v>4.5979100000000002E-3</v>
+      </c>
+      <c r="W32">
+        <v>5.1081800000000004E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -977,8 +1639,23 @@
       <c r="G33">
         <v>0.117946</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="T33">
+        <v>0.151617</v>
+      </c>
+      <c r="U33">
+        <v>6.3628199999999996E-2</v>
+      </c>
+      <c r="V33">
+        <v>5.4766000000000002E-2</v>
+      </c>
+      <c r="W33">
+        <v>5.5458199999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -998,12 +1675,12 @@
         <v>0.111744</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <v>7.7830999999999994E-5</v>
@@ -1018,12 +1695,93 @@
         <v>0.13880999999999999</v>
       </c>
     </row>
+    <row r="56" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K56" s="3"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3"/>
+    </row>
+    <row r="64" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K65" s="3"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K68" s="3"/>
+    </row>
+    <row r="71" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K75" s="3"/>
+    </row>
+    <row r="78" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K79" s="3"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K82" s="3"/>
+    </row>
+    <row r="85" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K86" s="3"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="Q11:W11"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q27:W27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
